--- a/table/DGP7_table.xlsx
+++ b/table/DGP7_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -434,28 +434,28 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.936</v>
+        <v>0.905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9315</v>
+        <v>0.916</v>
       </c>
       <c r="G2" t="n">
-        <v>1.21517357200344</v>
+        <v>4.73314653225325</v>
       </c>
       <c r="H2" t="n">
-        <v>1.21242616248831</v>
+        <v>4.29954158072277</v>
       </c>
       <c r="I2" t="n">
-        <v>2.73496326862808</v>
+        <v>74.4749449167989</v>
       </c>
       <c r="J2" t="n">
-        <v>2.82027709230192</v>
+        <v>60.2608958405458</v>
       </c>
       <c r="K2" t="n">
-        <v>5.65828304117159</v>
+        <v>35.0982863791545</v>
       </c>
       <c r="L2" t="n">
-        <v>5.89819931667434</v>
+        <v>36.4733301738481</v>
       </c>
     </row>
     <row r="3">
@@ -472,28 +472,28 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9245</v>
+        <v>0.8945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.931</v>
+        <v>0.9085</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13451648938547</v>
+        <v>5.04638986185751</v>
       </c>
       <c r="H3" t="n">
-        <v>1.15133399648718</v>
+        <v>4.42691475217872</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7200317523103</v>
+        <v>92.9148985082444</v>
       </c>
       <c r="J3" t="n">
-        <v>2.83774768385969</v>
+        <v>77.8284654071549</v>
       </c>
       <c r="K3" t="n">
-        <v>5.69045273327649</v>
+        <v>35.8275868182158</v>
       </c>
       <c r="L3" t="n">
-        <v>5.95220461791722</v>
+        <v>37.2419769149514</v>
       </c>
     </row>
     <row r="4">
@@ -510,28 +510,28 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9255</v>
+        <v>0.8815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.932</v>
+        <v>0.8935</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1709125594326</v>
+        <v>5.03079917358189</v>
       </c>
       <c r="H4" t="n">
-        <v>1.21298268595835</v>
+        <v>4.47910189210793</v>
       </c>
       <c r="I4" t="n">
-        <v>2.65158661953894</v>
+        <v>103.877904140106</v>
       </c>
       <c r="J4" t="n">
-        <v>2.79278382986252</v>
+        <v>88.3264635301833</v>
       </c>
       <c r="K4" t="n">
-        <v>5.59825906831201</v>
+        <v>36.0221764824479</v>
       </c>
       <c r="L4" t="n">
-        <v>5.92197334683444</v>
+        <v>37.4168595852482</v>
       </c>
     </row>
     <row r="5">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.936</v>
+        <v>0.8705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9385</v>
+        <v>0.8885</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14926371948321</v>
+        <v>5.32035163548029</v>
       </c>
       <c r="H5" t="n">
-        <v>1.12678875878789</v>
+        <v>4.71178545218728</v>
       </c>
       <c r="I5" t="n">
-        <v>2.72269310671801</v>
+        <v>123.963320653633</v>
       </c>
       <c r="J5" t="n">
-        <v>2.80904598952275</v>
+        <v>102.856164150814</v>
       </c>
       <c r="K5" t="n">
-        <v>5.65129956743283</v>
+        <v>35.760772488733</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9328347090551</v>
+        <v>37.2666075911716</v>
       </c>
     </row>
     <row r="6">
@@ -586,28 +586,28 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.929</v>
+        <v>0.8635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9355</v>
+        <v>0.878</v>
       </c>
       <c r="G6" t="n">
-        <v>1.20847935055733</v>
+        <v>5.43699721941208</v>
       </c>
       <c r="H6" t="n">
-        <v>1.20004837218865</v>
+        <v>4.79825583649993</v>
       </c>
       <c r="I6" t="n">
-        <v>2.85485444820913</v>
+        <v>140.611821440682</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87914510988898</v>
+        <v>119.368010690803</v>
       </c>
       <c r="K6" t="n">
-        <v>5.66747348501843</v>
+        <v>35.9024991533127</v>
       </c>
       <c r="L6" t="n">
-        <v>5.92251244919817</v>
+        <v>37.3756550468489</v>
       </c>
     </row>
     <row r="7">
@@ -624,28 +624,28 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9265</v>
+        <v>0.8515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9295</v>
+        <v>0.863</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13209249321432</v>
+        <v>5.42568408761497</v>
       </c>
       <c r="H7" t="n">
-        <v>1.13965589051087</v>
+        <v>5.00350989365236</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64923568400756</v>
+        <v>149.708051819309</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68549924303568</v>
+        <v>131.387829388145</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6889917788659</v>
+        <v>35.7973855107812</v>
       </c>
       <c r="L7" t="n">
-        <v>5.91342569782117</v>
+        <v>37.2680537676114</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.923</v>
+        <v>0.846</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9315</v>
+        <v>0.864</v>
       </c>
       <c r="G8" t="n">
-        <v>1.10504885345386</v>
+        <v>5.61170923811024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12181802100116</v>
+        <v>5.1000481105407</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75827077544349</v>
+        <v>170.082336953196</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84000834415115</v>
+        <v>149.977296142488</v>
       </c>
       <c r="K8" t="n">
-        <v>5.65362439312455</v>
+        <v>35.6819569507751</v>
       </c>
       <c r="L8" t="n">
-        <v>5.91022640504955</v>
+        <v>37.1254740352338</v>
       </c>
     </row>
     <row r="9">
@@ -700,28 +700,28 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9315</v>
+        <v>0.852</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9355</v>
+        <v>0.8635</v>
       </c>
       <c r="G9" t="n">
-        <v>1.16522630736903</v>
+        <v>5.56636270575188</v>
       </c>
       <c r="H9" t="n">
-        <v>1.18020718236134</v>
+        <v>5.00794986888384</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62728538522671</v>
+        <v>172.140598680902</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74263791479666</v>
+        <v>155.226114909841</v>
       </c>
       <c r="K9" t="n">
-        <v>5.65635433042419</v>
+        <v>35.7691305695761</v>
       </c>
       <c r="L9" t="n">
-        <v>5.93413745832637</v>
+        <v>37.2651130820535</v>
       </c>
     </row>
     <row r="10">
@@ -738,28 +738,28 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9285</v>
+        <v>0.857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9375</v>
+        <v>0.869</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15793966404468</v>
+        <v>5.47976706897923</v>
       </c>
       <c r="H10" t="n">
-        <v>1.18146766810265</v>
+        <v>5.1103049573982</v>
       </c>
       <c r="I10" t="n">
-        <v>2.79711761885775</v>
+        <v>175.547348639107</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88982685053694</v>
+        <v>158.979725689962</v>
       </c>
       <c r="K10" t="n">
-        <v>5.69198475188658</v>
+        <v>36.0756584656062</v>
       </c>
       <c r="L10" t="n">
-        <v>5.95130698883724</v>
+        <v>37.4308391152178</v>
       </c>
     </row>
     <row r="11">
@@ -776,28 +776,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.926</v>
+        <v>0.8515</v>
       </c>
       <c r="F11" t="n">
-        <v>0.932</v>
+        <v>0.865</v>
       </c>
       <c r="G11" t="n">
-        <v>1.22058656922742</v>
+        <v>5.63112893391703</v>
       </c>
       <c r="H11" t="n">
-        <v>1.20744079535644</v>
+        <v>5.12180517078787</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8397800669562</v>
+        <v>173.320215179504</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92721755657328</v>
+        <v>158.893784765762</v>
       </c>
       <c r="K11" t="n">
-        <v>5.66129410202038</v>
+        <v>35.740832736576</v>
       </c>
       <c r="L11" t="n">
-        <v>5.93899665086639</v>
+        <v>37.3927216761279</v>
       </c>
     </row>
     <row r="12">
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9345</v>
+        <v>0.9225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9375</v>
+        <v>0.939</v>
       </c>
       <c r="G12" t="n">
-        <v>1.13274796607381</v>
+        <v>4.74201764028004</v>
       </c>
       <c r="H12" t="n">
-        <v>1.16639852073483</v>
+        <v>3.61842488832408</v>
       </c>
       <c r="I12" t="n">
-        <v>2.71663826375459</v>
+        <v>62.9508242775598</v>
       </c>
       <c r="J12" t="n">
-        <v>2.79424446345301</v>
+        <v>45.0643939631959</v>
       </c>
       <c r="K12" t="n">
-        <v>5.53249913771727</v>
+        <v>33.1687091695329</v>
       </c>
       <c r="L12" t="n">
-        <v>5.77477207604734</v>
+        <v>33.0604693495968</v>
       </c>
     </row>
     <row r="13">
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.945</v>
+        <v>0.91</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9515</v>
+        <v>0.933</v>
       </c>
       <c r="G13" t="n">
-        <v>1.12629798445568</v>
+        <v>4.84461003215755</v>
       </c>
       <c r="H13" t="n">
-        <v>1.14694197119449</v>
+        <v>3.74820761231325</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5246700024604</v>
+        <v>79.0459618285021</v>
       </c>
       <c r="J13" t="n">
-        <v>2.59253571887419</v>
+        <v>59.5745865151192</v>
       </c>
       <c r="K13" t="n">
-        <v>5.59262170278388</v>
+        <v>33.8402617573452</v>
       </c>
       <c r="L13" t="n">
-        <v>5.83323140861649</v>
+        <v>33.888938129487</v>
       </c>
     </row>
     <row r="14">
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9425</v>
+        <v>0.9115</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9505</v>
+        <v>0.9325</v>
       </c>
       <c r="G14" t="n">
-        <v>1.13756662995262</v>
+        <v>5.22835443147959</v>
       </c>
       <c r="H14" t="n">
-        <v>1.15260214711754</v>
+        <v>4.10727359788616</v>
       </c>
       <c r="I14" t="n">
-        <v>2.51963626056107</v>
+        <v>86.7561289794606</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5957381770072</v>
+        <v>66.7257590545946</v>
       </c>
       <c r="K14" t="n">
-        <v>5.56662362134126</v>
+        <v>34.1714551699174</v>
       </c>
       <c r="L14" t="n">
-        <v>5.82395278542696</v>
+        <v>34.183572817332</v>
       </c>
     </row>
     <row r="15">
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9395</v>
+        <v>0.905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.948</v>
+        <v>0.9325</v>
       </c>
       <c r="G15" t="n">
-        <v>1.15055805336697</v>
+        <v>5.10116860627916</v>
       </c>
       <c r="H15" t="n">
-        <v>1.16418256875002</v>
+        <v>3.96069144689337</v>
       </c>
       <c r="I15" t="n">
-        <v>2.56794558204904</v>
+        <v>92.2164688528719</v>
       </c>
       <c r="J15" t="n">
-        <v>2.66023968645073</v>
+        <v>70.9866808721873</v>
       </c>
       <c r="K15" t="n">
-        <v>5.57163283080092</v>
+        <v>34.0821137997001</v>
       </c>
       <c r="L15" t="n">
-        <v>5.85269568227267</v>
+        <v>34.355380069223</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9485</v>
+        <v>0.911</v>
       </c>
       <c r="F16" t="n">
-        <v>0.95</v>
+        <v>0.9325</v>
       </c>
       <c r="G16" t="n">
-        <v>1.08951391225409</v>
+        <v>4.96330467761479</v>
       </c>
       <c r="H16" t="n">
-        <v>1.11094849868094</v>
+        <v>3.98697773848097</v>
       </c>
       <c r="I16" t="n">
-        <v>2.50663932710558</v>
+        <v>94.6439590761127</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5699625217802</v>
+        <v>72.4732529478147</v>
       </c>
       <c r="K16" t="n">
-        <v>5.57324076603337</v>
+        <v>33.998803325475</v>
       </c>
       <c r="L16" t="n">
-        <v>5.82565100616934</v>
+        <v>34.2137895451439</v>
       </c>
     </row>
     <row r="17">
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9345</v>
+        <v>0.9065</v>
       </c>
       <c r="F17" t="n">
-        <v>0.943</v>
+        <v>0.9275</v>
       </c>
       <c r="G17" t="n">
-        <v>1.1451697362759</v>
+        <v>5.07052844064793</v>
       </c>
       <c r="H17" t="n">
-        <v>1.1575066288897</v>
+        <v>3.88687434256863</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56123399582377</v>
+        <v>97.0595448922226</v>
       </c>
       <c r="J17" t="n">
-        <v>2.62455348690419</v>
+        <v>73.2507590279072</v>
       </c>
       <c r="K17" t="n">
-        <v>5.59809874559628</v>
+        <v>33.7594548929477</v>
       </c>
       <c r="L17" t="n">
-        <v>5.8522987118862</v>
+        <v>33.9032715298836</v>
       </c>
     </row>
     <row r="18">
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.945</v>
+        <v>0.908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9465</v>
+        <v>0.9245</v>
       </c>
       <c r="G18" t="n">
-        <v>1.12992717852438</v>
+        <v>4.83563994034562</v>
       </c>
       <c r="H18" t="n">
-        <v>1.17306569075918</v>
+        <v>3.91691166101457</v>
       </c>
       <c r="I18" t="n">
-        <v>2.65832396153698</v>
+        <v>98.2874585166318</v>
       </c>
       <c r="J18" t="n">
-        <v>2.78078095127492</v>
+        <v>75.2890784048955</v>
       </c>
       <c r="K18" t="n">
-        <v>5.58445304362582</v>
+        <v>33.4927303723789</v>
       </c>
       <c r="L18" t="n">
-        <v>5.81830201187493</v>
+        <v>33.82359405536</v>
       </c>
     </row>
     <row r="19">
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9475</v>
+        <v>0.908</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9545</v>
+        <v>0.926</v>
       </c>
       <c r="G19" t="n">
-        <v>1.21080905212899</v>
+        <v>5.05646970292028</v>
       </c>
       <c r="H19" t="n">
-        <v>1.21878540127751</v>
+        <v>4.21093112370892</v>
       </c>
       <c r="I19" t="n">
-        <v>2.68372229169867</v>
+        <v>101.62000537437</v>
       </c>
       <c r="J19" t="n">
-        <v>2.73019858029581</v>
+        <v>78.6812233253419</v>
       </c>
       <c r="K19" t="n">
-        <v>5.62815407841115</v>
+        <v>33.6725380441267</v>
       </c>
       <c r="L19" t="n">
-        <v>5.86154761781824</v>
+        <v>33.8576966173083</v>
       </c>
     </row>
     <row r="20">
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.948</v>
+        <v>0.9005</v>
       </c>
       <c r="F20" t="n">
-        <v>0.951</v>
+        <v>0.9235</v>
       </c>
       <c r="G20" t="n">
-        <v>1.10269005461537</v>
+        <v>5.08031507577465</v>
       </c>
       <c r="H20" t="n">
-        <v>1.07798872563966</v>
+        <v>4.04071820825445</v>
       </c>
       <c r="I20" t="n">
-        <v>2.47520456574366</v>
+        <v>99.9960939075263</v>
       </c>
       <c r="J20" t="n">
-        <v>2.53586808607907</v>
+        <v>79.0475270231361</v>
       </c>
       <c r="K20" t="n">
-        <v>5.55899845428864</v>
+        <v>33.5738969304257</v>
       </c>
       <c r="L20" t="n">
-        <v>5.80413306700469</v>
+        <v>33.8606868688249</v>
       </c>
     </row>
     <row r="21">
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.946</v>
+        <v>0.9005</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9495</v>
+        <v>0.926</v>
       </c>
       <c r="G21" t="n">
-        <v>1.12719623356397</v>
+        <v>5.18084041117127</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1287659757081</v>
+        <v>4.08616456292327</v>
       </c>
       <c r="I21" t="n">
-        <v>2.48113672571955</v>
+        <v>103.645926336967</v>
       </c>
       <c r="J21" t="n">
-        <v>2.51380794028921</v>
+        <v>82.0480518201833</v>
       </c>
       <c r="K21" t="n">
-        <v>5.57034510605087</v>
+        <v>33.8559762585315</v>
       </c>
       <c r="L21" t="n">
-        <v>5.82111813534034</v>
+        <v>33.9703631903625</v>
       </c>
     </row>
     <row r="22">
@@ -1194,28 +1194,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.934</v>
+        <v>0.905</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9405</v>
+        <v>0.9155</v>
       </c>
       <c r="G22" t="n">
-        <v>1.16704980236149</v>
+        <v>4.81307777618471</v>
       </c>
       <c r="H22" t="n">
-        <v>1.17206916707715</v>
+        <v>4.37969851304957</v>
       </c>
       <c r="I22" t="n">
-        <v>2.68420765316351</v>
+        <v>75.3401357657692</v>
       </c>
       <c r="J22" t="n">
-        <v>2.78744703061712</v>
+        <v>67.8068921036045</v>
       </c>
       <c r="K22" t="n">
-        <v>5.71674211526345</v>
+        <v>35.0648461822926</v>
       </c>
       <c r="L22" t="n">
-        <v>5.97179010861502</v>
+        <v>36.8591522714004</v>
       </c>
     </row>
     <row r="23">
@@ -1232,28 +1232,28 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9345</v>
+        <v>0.8785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9375</v>
+        <v>0.894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.20272966601039</v>
+        <v>5.23026265613</v>
       </c>
       <c r="H23" t="n">
-        <v>1.19034095600125</v>
+        <v>4.66675680080935</v>
       </c>
       <c r="I23" t="n">
-        <v>2.67988747114256</v>
+        <v>92.7252361371669</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82021152613703</v>
+        <v>84.7073723658225</v>
       </c>
       <c r="K23" t="n">
-        <v>5.72857169947697</v>
+        <v>35.674995350735</v>
       </c>
       <c r="L23" t="n">
-        <v>5.96109809320004</v>
+        <v>37.5837433377108</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1270,28 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9435</v>
+        <v>0.8785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9475</v>
+        <v>0.89</v>
       </c>
       <c r="G24" t="n">
-        <v>1.17807562406287</v>
+        <v>5.3835560286684</v>
       </c>
       <c r="H24" t="n">
-        <v>1.18956900254255</v>
+        <v>4.83909483020971</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6262053368871</v>
+        <v>107.648020925251</v>
       </c>
       <c r="J24" t="n">
-        <v>2.71832402825408</v>
+        <v>97.2583258225538</v>
       </c>
       <c r="K24" t="n">
-        <v>5.70093772563479</v>
+        <v>35.4956162083376</v>
       </c>
       <c r="L24" t="n">
-        <v>5.93805584204086</v>
+        <v>37.4386700775072</v>
       </c>
     </row>
     <row r="25">
@@ -1308,28 +1308,28 @@
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.926</v>
+        <v>0.871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.933</v>
+        <v>0.885</v>
       </c>
       <c r="G25" t="n">
-        <v>1.14438715207008</v>
+        <v>5.50652853415162</v>
       </c>
       <c r="H25" t="n">
-        <v>1.12792738182161</v>
+        <v>5.1036764466599</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55414015962079</v>
+        <v>114.924365372456</v>
       </c>
       <c r="J25" t="n">
-        <v>2.69408211823568</v>
+        <v>104.346924507869</v>
       </c>
       <c r="K25" t="n">
-        <v>5.67251225136093</v>
+        <v>35.6753755528801</v>
       </c>
       <c r="L25" t="n">
-        <v>5.9378209283274</v>
+        <v>37.6721853202077</v>
       </c>
     </row>
     <row r="26">
@@ -1346,28 +1346,28 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9305</v>
+        <v>0.861</v>
       </c>
       <c r="F26" t="n">
-        <v>0.931</v>
+        <v>0.873</v>
       </c>
       <c r="G26" t="n">
-        <v>1.17929417329002</v>
+        <v>5.58242993695613</v>
       </c>
       <c r="H26" t="n">
-        <v>1.2002194034777</v>
+        <v>5.19786203008445</v>
       </c>
       <c r="I26" t="n">
-        <v>2.73928742036464</v>
+        <v>123.191743329081</v>
       </c>
       <c r="J26" t="n">
-        <v>2.8664258163751</v>
+        <v>116.474977058337</v>
       </c>
       <c r="K26" t="n">
-        <v>5.71291118153854</v>
+        <v>35.7952282113963</v>
       </c>
       <c r="L26" t="n">
-        <v>5.98677459628629</v>
+        <v>37.5631462890476</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1384,28 @@
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9485</v>
+        <v>0.8565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.943</v>
+        <v>0.871</v>
       </c>
       <c r="G27" t="n">
-        <v>1.14523304846176</v>
+        <v>5.48473631601191</v>
       </c>
       <c r="H27" t="n">
-        <v>1.16822932504102</v>
+        <v>5.14581893710994</v>
       </c>
       <c r="I27" t="n">
-        <v>2.66246969990348</v>
+        <v>128.909152957867</v>
       </c>
       <c r="J27" t="n">
-        <v>2.79920022087476</v>
+        <v>120.383195294628</v>
       </c>
       <c r="K27" t="n">
-        <v>5.70565583973734</v>
+        <v>35.7052887545307</v>
       </c>
       <c r="L27" t="n">
-        <v>5.98915555766776</v>
+        <v>37.8392813871495</v>
       </c>
     </row>
     <row r="28">
@@ -1422,28 +1422,28 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9355</v>
+        <v>0.8565</v>
       </c>
       <c r="F28" t="n">
-        <v>0.938</v>
+        <v>0.871</v>
       </c>
       <c r="G28" t="n">
-        <v>1.1476749736591</v>
+        <v>5.42353939532824</v>
       </c>
       <c r="H28" t="n">
-        <v>1.17394623811119</v>
+        <v>5.03036003832841</v>
       </c>
       <c r="I28" t="n">
-        <v>2.65650238073048</v>
+        <v>125.064853601089</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75666529721142</v>
+        <v>117.320675437727</v>
       </c>
       <c r="K28" t="n">
-        <v>5.72738447128955</v>
+        <v>35.5581184577078</v>
       </c>
       <c r="L28" t="n">
-        <v>5.98669384133691</v>
+        <v>37.6658749495528</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.929</v>
+        <v>0.864</v>
       </c>
       <c r="F29" t="n">
-        <v>0.936</v>
+        <v>0.874</v>
       </c>
       <c r="G29" t="n">
-        <v>1.12654824080584</v>
+        <v>5.83501475595154</v>
       </c>
       <c r="H29" t="n">
-        <v>1.14542212925836</v>
+        <v>5.21182973360795</v>
       </c>
       <c r="I29" t="n">
-        <v>2.59526304788897</v>
+        <v>131.766986601032</v>
       </c>
       <c r="J29" t="n">
-        <v>2.69201237140086</v>
+        <v>122.057278165408</v>
       </c>
       <c r="K29" t="n">
-        <v>5.67700246580099</v>
+        <v>35.7583533970946</v>
       </c>
       <c r="L29" t="n">
-        <v>5.97854448734817</v>
+        <v>37.5555061018629</v>
       </c>
     </row>
     <row r="30">
@@ -1498,28 +1498,28 @@
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.932</v>
+        <v>0.8575</v>
       </c>
       <c r="F30" t="n">
-        <v>0.936</v>
+        <v>0.869</v>
       </c>
       <c r="G30" t="n">
-        <v>1.23720573581033</v>
+        <v>5.51807119467203</v>
       </c>
       <c r="H30" t="n">
-        <v>1.23322857964608</v>
+        <v>5.08316479029982</v>
       </c>
       <c r="I30" t="n">
-        <v>2.69984420831142</v>
+        <v>132.232338569259</v>
       </c>
       <c r="J30" t="n">
-        <v>2.76903946233194</v>
+        <v>122.811893365983</v>
       </c>
       <c r="K30" t="n">
-        <v>5.66486289440855</v>
+        <v>35.6713473550687</v>
       </c>
       <c r="L30" t="n">
-        <v>5.96946085047825</v>
+        <v>37.4147070420376</v>
       </c>
     </row>
     <row r="31">
@@ -1536,28 +1536,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.928</v>
+        <v>0.859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.929</v>
+        <v>0.872</v>
       </c>
       <c r="G31" t="n">
-        <v>1.14496004298893</v>
+        <v>5.46799943357294</v>
       </c>
       <c r="H31" t="n">
-        <v>1.14650445028537</v>
+        <v>5.02384516127667</v>
       </c>
       <c r="I31" t="n">
-        <v>2.73258373318965</v>
+        <v>136.397553563903</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84469509256346</v>
+        <v>128.199781537166</v>
       </c>
       <c r="K31" t="n">
-        <v>5.69741576205561</v>
+        <v>35.551864824723</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9518096340517</v>
+        <v>37.4477406999756</v>
       </c>
     </row>
     <row r="32">
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9475</v>
+        <v>0.9305</v>
       </c>
       <c r="F32" t="n">
-        <v>0.948</v>
+        <v>0.9465</v>
       </c>
       <c r="G32" t="n">
-        <v>1.17628528424316</v>
+        <v>4.34184353822697</v>
       </c>
       <c r="H32" t="n">
-        <v>1.17513868263826</v>
+        <v>3.70571316508084</v>
       </c>
       <c r="I32" t="n">
-        <v>2.61763641959601</v>
+        <v>53.6175187668309</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6516368661073</v>
+        <v>39.8663513329776</v>
       </c>
       <c r="K32" t="n">
-        <v>5.44407344737395</v>
+        <v>32.8172737908828</v>
       </c>
       <c r="L32" t="n">
-        <v>5.66233948884281</v>
+        <v>32.9821417822697</v>
       </c>
     </row>
     <row r="33">
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9525</v>
+        <v>0.9185</v>
       </c>
       <c r="F33" t="n">
-        <v>0.955</v>
+        <v>0.935</v>
       </c>
       <c r="G33" t="n">
-        <v>1.21071957702016</v>
+        <v>4.77697052666029</v>
       </c>
       <c r="H33" t="n">
-        <v>1.2241755373421</v>
+        <v>4.00741518209234</v>
       </c>
       <c r="I33" t="n">
-        <v>2.52076632677441</v>
+        <v>72.1932504461177</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63873826630278</v>
+        <v>56.4977252881331</v>
       </c>
       <c r="K33" t="n">
-        <v>5.45217119505309</v>
+        <v>33.0140738850754</v>
       </c>
       <c r="L33" t="n">
-        <v>5.66451515495776</v>
+        <v>33.570270929771</v>
       </c>
     </row>
     <row r="34">
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9525</v>
+        <v>0.9065</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9485</v>
+        <v>0.924</v>
       </c>
       <c r="G34" t="n">
-        <v>1.11832333460233</v>
+        <v>4.92961390035701</v>
       </c>
       <c r="H34" t="n">
-        <v>1.12146592557691</v>
+        <v>4.06479667845349</v>
       </c>
       <c r="I34" t="n">
-        <v>2.46716471479438</v>
+        <v>87.7697010199699</v>
       </c>
       <c r="J34" t="n">
-        <v>2.54262365048854</v>
+        <v>70.0772990272026</v>
       </c>
       <c r="K34" t="n">
-        <v>5.46443922827898</v>
+        <v>32.9712054558419</v>
       </c>
       <c r="L34" t="n">
-        <v>5.68119807971341</v>
+        <v>33.650944093752</v>
       </c>
     </row>
     <row r="35">
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9475</v>
+        <v>0.905</v>
       </c>
       <c r="F35" t="n">
-        <v>0.946</v>
+        <v>0.9235</v>
       </c>
       <c r="G35" t="n">
-        <v>1.15616832880948</v>
+        <v>4.80851397295644</v>
       </c>
       <c r="H35" t="n">
-        <v>1.1668318863011</v>
+        <v>4.08697576519064</v>
       </c>
       <c r="I35" t="n">
-        <v>2.6034541333189</v>
+        <v>92.064759580742</v>
       </c>
       <c r="J35" t="n">
-        <v>2.66397210429371</v>
+        <v>75.0451451638236</v>
       </c>
       <c r="K35" t="n">
-        <v>5.46560672781793</v>
+        <v>32.9120700560388</v>
       </c>
       <c r="L35" t="n">
-        <v>5.66969154874841</v>
+        <v>33.3539766504604</v>
       </c>
     </row>
     <row r="36">
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.949</v>
+        <v>0.91</v>
       </c>
       <c r="F36" t="n">
-        <v>0.945</v>
+        <v>0.9245</v>
       </c>
       <c r="G36" t="n">
-        <v>1.12969837390576</v>
+        <v>4.90522816760246</v>
       </c>
       <c r="H36" t="n">
-        <v>1.13116143518755</v>
+        <v>4.08484460541657</v>
       </c>
       <c r="I36" t="n">
-        <v>2.5107149407459</v>
+        <v>95.9466746455034</v>
       </c>
       <c r="J36" t="n">
-        <v>2.55549817819245</v>
+        <v>80.66212928731</v>
       </c>
       <c r="K36" t="n">
-        <v>5.50161761012382</v>
+        <v>33.1116151209224</v>
       </c>
       <c r="L36" t="n">
-        <v>5.72829723217576</v>
+        <v>33.5730113874564</v>
       </c>
     </row>
     <row r="37">
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.945</v>
+        <v>0.8985</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9525</v>
+        <v>0.9155</v>
       </c>
       <c r="G37" t="n">
-        <v>1.13194779661205</v>
+        <v>5.16678458351156</v>
       </c>
       <c r="H37" t="n">
-        <v>1.11064003944817</v>
+        <v>4.19535209672996</v>
       </c>
       <c r="I37" t="n">
-        <v>2.47417766099675</v>
+        <v>104.199222380317</v>
       </c>
       <c r="J37" t="n">
-        <v>2.55529916311349</v>
+        <v>88.8744434436766</v>
       </c>
       <c r="K37" t="n">
-        <v>5.46778023860173</v>
+        <v>33.1151374205026</v>
       </c>
       <c r="L37" t="n">
-        <v>5.70940325371522</v>
+        <v>33.6595966988514</v>
       </c>
     </row>
     <row r="38">
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9435</v>
+        <v>0.902</v>
       </c>
       <c r="F38" t="n">
-        <v>0.949</v>
+        <v>0.9195</v>
       </c>
       <c r="G38" t="n">
-        <v>1.16410052239363</v>
+        <v>5.01301545703215</v>
       </c>
       <c r="H38" t="n">
-        <v>1.15249488168784</v>
+        <v>4.19016338767158</v>
       </c>
       <c r="I38" t="n">
-        <v>2.47420529870279</v>
+        <v>109.388895042621</v>
       </c>
       <c r="J38" t="n">
-        <v>2.56908779105035</v>
+        <v>94.8726515866744</v>
       </c>
       <c r="K38" t="n">
-        <v>5.44717065023807</v>
+        <v>33.1460350801544</v>
       </c>
       <c r="L38" t="n">
-        <v>5.67782991039134</v>
+        <v>33.658557684542</v>
       </c>
     </row>
     <row r="39">
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.946</v>
+        <v>0.899</v>
       </c>
       <c r="F39" t="n">
-        <v>0.95</v>
+        <v>0.918</v>
       </c>
       <c r="G39" t="n">
-        <v>1.09566880693696</v>
+        <v>4.77574360102099</v>
       </c>
       <c r="H39" t="n">
-        <v>1.10230023382427</v>
+        <v>3.95234639603569</v>
       </c>
       <c r="I39" t="n">
-        <v>2.39483391712297</v>
+        <v>100.079527566363</v>
       </c>
       <c r="J39" t="n">
-        <v>2.46934534586257</v>
+        <v>86.0356308386104</v>
       </c>
       <c r="K39" t="n">
-        <v>5.45213278601481</v>
+        <v>33.0560667673246</v>
       </c>
       <c r="L39" t="n">
-        <v>5.68925327111104</v>
+        <v>33.273922048681</v>
       </c>
     </row>
     <row r="40">
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9505</v>
+        <v>0.898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9565</v>
+        <v>0.9115</v>
       </c>
       <c r="G40" t="n">
-        <v>1.13097857463878</v>
+        <v>4.94208936051076</v>
       </c>
       <c r="H40" t="n">
-        <v>1.13531288669672</v>
+        <v>3.9523362377787</v>
       </c>
       <c r="I40" t="n">
-        <v>2.36976936578512</v>
+        <v>98.7866600903044</v>
       </c>
       <c r="J40" t="n">
-        <v>2.44709129911217</v>
+        <v>82.6485019036437</v>
       </c>
       <c r="K40" t="n">
-        <v>5.43215602479963</v>
+        <v>32.8969171515298</v>
       </c>
       <c r="L40" t="n">
-        <v>5.66879556221054</v>
+        <v>33.3471404567088</v>
       </c>
     </row>
     <row r="41">
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.952</v>
+        <v>0.9</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9545</v>
+        <v>0.9195</v>
       </c>
       <c r="G41" t="n">
-        <v>1.12590907906786</v>
+        <v>5.19406714774386</v>
       </c>
       <c r="H41" t="n">
-        <v>1.13960507637874</v>
+        <v>4.14652840223478</v>
       </c>
       <c r="I41" t="n">
-        <v>2.43503652755054</v>
+        <v>99.7573337364125</v>
       </c>
       <c r="J41" t="n">
-        <v>2.49144606665477</v>
+        <v>83.651751247486</v>
       </c>
       <c r="K41" t="n">
-        <v>5.44755399125985</v>
+        <v>33.0087324634814</v>
       </c>
       <c r="L41" t="n">
-        <v>5.71607689433742</v>
+        <v>33.6906598924011</v>
       </c>
     </row>
   </sheetData>

--- a/table/DGP7_table.xlsx
+++ b/table/DGP7_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.905</v>
+        <v>0.926</v>
       </c>
       <c r="F2" t="n">
-        <v>0.916</v>
+        <v>0.9505</v>
       </c>
       <c r="G2" t="n">
-        <v>4.73314653225325</v>
+        <v>4.3357230524133</v>
       </c>
       <c r="H2" t="n">
-        <v>4.29954158072277</v>
+        <v>2.93287623433092</v>
       </c>
       <c r="I2" t="n">
-        <v>74.4749449167989</v>
+        <v>44.9836472909073</v>
       </c>
       <c r="J2" t="n">
-        <v>60.2608958405458</v>
+        <v>28.0183153526023</v>
       </c>
       <c r="K2" t="n">
-        <v>35.0982863791545</v>
+        <v>27.3105464807661</v>
       </c>
       <c r="L2" t="n">
-        <v>36.4733301738481</v>
+        <v>26.7507899233459</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8945</v>
+        <v>0.923</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9085</v>
+        <v>0.949</v>
       </c>
       <c r="G3" t="n">
-        <v>5.04638986185751</v>
+        <v>4.35604665845885</v>
       </c>
       <c r="H3" t="n">
-        <v>4.42691475217872</v>
+        <v>3.21771624028437</v>
       </c>
       <c r="I3" t="n">
-        <v>92.9148985082444</v>
+        <v>49.3304096579913</v>
       </c>
       <c r="J3" t="n">
-        <v>77.8284654071549</v>
+        <v>30.5573046754171</v>
       </c>
       <c r="K3" t="n">
-        <v>35.8275868182158</v>
+        <v>27.9437512570956</v>
       </c>
       <c r="L3" t="n">
-        <v>37.2419769149514</v>
+        <v>27.245256725618</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8815</v>
+        <v>0.9125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8935</v>
+        <v>0.935</v>
       </c>
       <c r="G4" t="n">
-        <v>5.03079917358189</v>
+        <v>4.427361215938</v>
       </c>
       <c r="H4" t="n">
-        <v>4.47910189210793</v>
+        <v>3.24155875253562</v>
       </c>
       <c r="I4" t="n">
-        <v>103.877904140106</v>
+        <v>54.9516749081346</v>
       </c>
       <c r="J4" t="n">
-        <v>88.3264635301833</v>
+        <v>35.6549399344997</v>
       </c>
       <c r="K4" t="n">
-        <v>36.0221764824479</v>
+        <v>27.9333643314627</v>
       </c>
       <c r="L4" t="n">
-        <v>37.4168595852482</v>
+        <v>27.1254640345335</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8705</v>
+        <v>0.906</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8885</v>
+        <v>0.9385</v>
       </c>
       <c r="G5" t="n">
-        <v>5.32035163548029</v>
+        <v>4.42882150233434</v>
       </c>
       <c r="H5" t="n">
-        <v>4.71178545218728</v>
+        <v>3.24632882791935</v>
       </c>
       <c r="I5" t="n">
-        <v>123.963320653633</v>
+        <v>52.8206164046769</v>
       </c>
       <c r="J5" t="n">
-        <v>102.856164150814</v>
+        <v>33.4438460883513</v>
       </c>
       <c r="K5" t="n">
-        <v>35.760772488733</v>
+        <v>28.1207647962731</v>
       </c>
       <c r="L5" t="n">
-        <v>37.2666075911716</v>
+        <v>27.2325165767062</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8635</v>
+        <v>0.9045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.878</v>
+        <v>0.9305</v>
       </c>
       <c r="G6" t="n">
-        <v>5.43699721941208</v>
+        <v>4.66483839136332</v>
       </c>
       <c r="H6" t="n">
-        <v>4.79825583649993</v>
+        <v>3.43342573161025</v>
       </c>
       <c r="I6" t="n">
-        <v>140.611821440682</v>
+        <v>56.3792825288709</v>
       </c>
       <c r="J6" t="n">
-        <v>119.368010690803</v>
+        <v>36.4952155671284</v>
       </c>
       <c r="K6" t="n">
-        <v>35.9024991533127</v>
+        <v>28.4413772592696</v>
       </c>
       <c r="L6" t="n">
-        <v>37.3756550468489</v>
+        <v>27.4611177406048</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8515</v>
+        <v>0.9075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.863</v>
+        <v>0.9355</v>
       </c>
       <c r="G7" t="n">
-        <v>5.42568408761497</v>
+        <v>4.56126698371599</v>
       </c>
       <c r="H7" t="n">
-        <v>5.00350989365236</v>
+        <v>3.31233226964947</v>
       </c>
       <c r="I7" t="n">
-        <v>149.708051819309</v>
+        <v>55.2291152135722</v>
       </c>
       <c r="J7" t="n">
-        <v>131.387829388145</v>
+        <v>35.6305375044305</v>
       </c>
       <c r="K7" t="n">
-        <v>35.7973855107812</v>
+        <v>28.0505958164529</v>
       </c>
       <c r="L7" t="n">
-        <v>37.2680537676114</v>
+        <v>27.4160847898752</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.846</v>
+        <v>0.9045</v>
       </c>
       <c r="F8" t="n">
-        <v>0.864</v>
+        <v>0.9295</v>
       </c>
       <c r="G8" t="n">
-        <v>5.61170923811024</v>
+        <v>4.5909530917292</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1000481105407</v>
+        <v>3.3722534428687</v>
       </c>
       <c r="I8" t="n">
-        <v>170.082336953196</v>
+        <v>57.1775305585984</v>
       </c>
       <c r="J8" t="n">
-        <v>149.977296142488</v>
+        <v>36.8697343869243</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6819569507751</v>
+        <v>28.1937345328169</v>
       </c>
       <c r="L8" t="n">
-        <v>37.1254740352338</v>
+        <v>27.3004001877245</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.852</v>
+        <v>0.9135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8635</v>
+        <v>0.94</v>
       </c>
       <c r="G9" t="n">
-        <v>5.56636270575188</v>
+        <v>4.52835831123909</v>
       </c>
       <c r="H9" t="n">
-        <v>5.00794986888384</v>
+        <v>3.19015355549819</v>
       </c>
       <c r="I9" t="n">
-        <v>172.140598680902</v>
+        <v>57.1336729585349</v>
       </c>
       <c r="J9" t="n">
-        <v>155.226114909841</v>
+        <v>36.5746284191983</v>
       </c>
       <c r="K9" t="n">
-        <v>35.7691305695761</v>
+        <v>28.2808197848441</v>
       </c>
       <c r="L9" t="n">
-        <v>37.2651130820535</v>
+        <v>27.5392135130375</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.857</v>
+        <v>0.9115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.869</v>
+        <v>0.94</v>
       </c>
       <c r="G10" t="n">
-        <v>5.47976706897923</v>
+        <v>4.68131156941239</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1103049573982</v>
+        <v>3.35659882297542</v>
       </c>
       <c r="I10" t="n">
-        <v>175.547348639107</v>
+        <v>58.5455085852656</v>
       </c>
       <c r="J10" t="n">
-        <v>158.979725689962</v>
+        <v>37.0090098439898</v>
       </c>
       <c r="K10" t="n">
-        <v>36.0756584656062</v>
+        <v>28.0421584724399</v>
       </c>
       <c r="L10" t="n">
-        <v>37.4308391152178</v>
+        <v>27.7041464391375</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8515</v>
+        <v>0.909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.865</v>
+        <v>0.9395</v>
       </c>
       <c r="G11" t="n">
-        <v>5.63112893391703</v>
+        <v>4.52853713188423</v>
       </c>
       <c r="H11" t="n">
-        <v>5.12180517078787</v>
+        <v>3.22798387630567</v>
       </c>
       <c r="I11" t="n">
-        <v>173.320215179504</v>
+        <v>56.8602453615339</v>
       </c>
       <c r="J11" t="n">
-        <v>158.893784765762</v>
+        <v>35.9993653054615</v>
       </c>
       <c r="K11" t="n">
-        <v>35.740832736576</v>
+        <v>28.2079741226254</v>
       </c>
       <c r="L11" t="n">
-        <v>37.3927216761279</v>
+        <v>27.5176833016935</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9225</v>
+        <v>0.942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.939</v>
+        <v>0.964</v>
       </c>
       <c r="G12" t="n">
-        <v>4.74201764028004</v>
+        <v>4.2610606524933</v>
       </c>
       <c r="H12" t="n">
-        <v>3.61842488832408</v>
+        <v>2.71207279274289</v>
       </c>
       <c r="I12" t="n">
-        <v>62.9508242775598</v>
+        <v>41.9460988257557</v>
       </c>
       <c r="J12" t="n">
-        <v>45.0643939631959</v>
+        <v>21.7350743944972</v>
       </c>
       <c r="K12" t="n">
-        <v>33.1687091695329</v>
+        <v>27.0221079119197</v>
       </c>
       <c r="L12" t="n">
-        <v>33.0604693495968</v>
+        <v>25.4772671176394</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.91</v>
+        <v>0.9255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.933</v>
+        <v>0.9505</v>
       </c>
       <c r="G13" t="n">
-        <v>4.84461003215755</v>
+        <v>4.36749463942222</v>
       </c>
       <c r="H13" t="n">
-        <v>3.74820761231325</v>
+        <v>2.78600630200188</v>
       </c>
       <c r="I13" t="n">
-        <v>79.0459618285021</v>
+        <v>47.3579495808089</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5745865151192</v>
+        <v>25.6263457282217</v>
       </c>
       <c r="K13" t="n">
-        <v>33.8402617573452</v>
+        <v>27.5538145908827</v>
       </c>
       <c r="L13" t="n">
-        <v>33.888938129487</v>
+        <v>26.0094815033194</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9115</v>
+        <v>0.9155</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9325</v>
+        <v>0.951</v>
       </c>
       <c r="G14" t="n">
-        <v>5.22835443147959</v>
+        <v>4.36696381253738</v>
       </c>
       <c r="H14" t="n">
-        <v>4.10727359788616</v>
+        <v>2.89422594784777</v>
       </c>
       <c r="I14" t="n">
-        <v>86.7561289794606</v>
+        <v>49.6405238517773</v>
       </c>
       <c r="J14" t="n">
-        <v>66.7257590545946</v>
+        <v>26.8275907245668</v>
       </c>
       <c r="K14" t="n">
-        <v>34.1714551699174</v>
+        <v>27.2867559602879</v>
       </c>
       <c r="L14" t="n">
-        <v>34.183572817332</v>
+        <v>26.148773946898</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.905</v>
+        <v>0.928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9325</v>
+        <v>0.9565</v>
       </c>
       <c r="G15" t="n">
-        <v>5.10116860627916</v>
+        <v>4.31061435986845</v>
       </c>
       <c r="H15" t="n">
-        <v>3.96069144689337</v>
+        <v>2.89466787594797</v>
       </c>
       <c r="I15" t="n">
-        <v>92.2164688528719</v>
+        <v>50.5045611863551</v>
       </c>
       <c r="J15" t="n">
-        <v>70.9866808721873</v>
+        <v>27.9450153391381</v>
       </c>
       <c r="K15" t="n">
-        <v>34.0821137997001</v>
+        <v>27.5804081341146</v>
       </c>
       <c r="L15" t="n">
-        <v>34.355380069223</v>
+        <v>26.1904702129901</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.911</v>
+        <v>0.9205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9325</v>
+        <v>0.951</v>
       </c>
       <c r="G16" t="n">
-        <v>4.96330467761479</v>
+        <v>4.35017363649148</v>
       </c>
       <c r="H16" t="n">
-        <v>3.98697773848097</v>
+        <v>2.90991749316132</v>
       </c>
       <c r="I16" t="n">
-        <v>94.6439590761127</v>
+        <v>51.144785218642</v>
       </c>
       <c r="J16" t="n">
-        <v>72.4732529478147</v>
+        <v>29.5192284736151</v>
       </c>
       <c r="K16" t="n">
-        <v>33.998803325475</v>
+        <v>27.5288549906731</v>
       </c>
       <c r="L16" t="n">
-        <v>34.2137895451439</v>
+        <v>26.1505186826897</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9065</v>
+        <v>0.92</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9275</v>
+        <v>0.954</v>
       </c>
       <c r="G17" t="n">
-        <v>5.07052844064793</v>
+        <v>4.36292403517677</v>
       </c>
       <c r="H17" t="n">
-        <v>3.88687434256863</v>
+        <v>2.91350902652042</v>
       </c>
       <c r="I17" t="n">
-        <v>97.0595448922226</v>
+        <v>49.556795225532</v>
       </c>
       <c r="J17" t="n">
-        <v>73.2507590279072</v>
+        <v>27.9914929165389</v>
       </c>
       <c r="K17" t="n">
-        <v>33.7594548929477</v>
+        <v>27.7509737815522</v>
       </c>
       <c r="L17" t="n">
-        <v>33.9032715298836</v>
+        <v>26.266525017082</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.908</v>
+        <v>0.9275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9245</v>
+        <v>0.9545</v>
       </c>
       <c r="G18" t="n">
-        <v>4.83563994034562</v>
+        <v>4.56385795584308</v>
       </c>
       <c r="H18" t="n">
-        <v>3.91691166101457</v>
+        <v>3.03411134024623</v>
       </c>
       <c r="I18" t="n">
-        <v>98.2874585166318</v>
+        <v>49.9722597982562</v>
       </c>
       <c r="J18" t="n">
-        <v>75.2890784048955</v>
+        <v>27.2762308837427</v>
       </c>
       <c r="K18" t="n">
-        <v>33.4927303723789</v>
+        <v>27.762457792735</v>
       </c>
       <c r="L18" t="n">
-        <v>33.82359405536</v>
+        <v>26.147227004555</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.908</v>
+        <v>0.9235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.926</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="n">
-        <v>5.05646970292028</v>
+        <v>4.29667563212792</v>
       </c>
       <c r="H19" t="n">
-        <v>4.21093112370892</v>
+        <v>2.89133712825573</v>
       </c>
       <c r="I19" t="n">
-        <v>101.62000537437</v>
+        <v>51.5697690229797</v>
       </c>
       <c r="J19" t="n">
-        <v>78.6812233253419</v>
+        <v>28.5694386242526</v>
       </c>
       <c r="K19" t="n">
-        <v>33.6725380441267</v>
+        <v>27.6823522370875</v>
       </c>
       <c r="L19" t="n">
-        <v>33.8576966173083</v>
+        <v>26.1137129422213</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9005</v>
+        <v>0.924</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9235</v>
+        <v>0.9525</v>
       </c>
       <c r="G20" t="n">
-        <v>5.08031507577465</v>
+        <v>4.58019596388678</v>
       </c>
       <c r="H20" t="n">
-        <v>4.04071820825445</v>
+        <v>2.89521970869925</v>
       </c>
       <c r="I20" t="n">
-        <v>99.9960939075263</v>
+        <v>51.6007553404193</v>
       </c>
       <c r="J20" t="n">
-        <v>79.0475270231361</v>
+        <v>29.4369845963312</v>
       </c>
       <c r="K20" t="n">
-        <v>33.5738969304257</v>
+        <v>27.5781027595569</v>
       </c>
       <c r="L20" t="n">
-        <v>33.8606868688249</v>
+        <v>26.2741568366686</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9005</v>
+        <v>0.9255</v>
       </c>
       <c r="F21" t="n">
-        <v>0.926</v>
+        <v>0.952</v>
       </c>
       <c r="G21" t="n">
-        <v>5.18084041117127</v>
+        <v>4.27906544794285</v>
       </c>
       <c r="H21" t="n">
-        <v>4.08616456292327</v>
+        <v>2.82678909113131</v>
       </c>
       <c r="I21" t="n">
-        <v>103.645926336967</v>
+        <v>49.5919162159149</v>
       </c>
       <c r="J21" t="n">
-        <v>82.0480518201833</v>
+        <v>27.4268957626276</v>
       </c>
       <c r="K21" t="n">
-        <v>33.8559762585315</v>
+        <v>27.3628896977179</v>
       </c>
       <c r="L21" t="n">
-        <v>33.9703631903625</v>
+        <v>26.1895542940786</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.905</v>
+        <v>0.9315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9155</v>
+        <v>0.9495</v>
       </c>
       <c r="G22" t="n">
-        <v>4.81307777618471</v>
+        <v>4.36796155874783</v>
       </c>
       <c r="H22" t="n">
-        <v>4.37969851304957</v>
+        <v>3.16274869283811</v>
       </c>
       <c r="I22" t="n">
-        <v>75.3401357657692</v>
+        <v>46.5232501650802</v>
       </c>
       <c r="J22" t="n">
-        <v>67.8068921036045</v>
+        <v>30.7518555116894</v>
       </c>
       <c r="K22" t="n">
-        <v>35.0648461822926</v>
+        <v>27.49405338427</v>
       </c>
       <c r="L22" t="n">
-        <v>36.8591522714004</v>
+        <v>27.009641623427</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8785</v>
+        <v>0.9155</v>
       </c>
       <c r="F23" t="n">
-        <v>0.894</v>
+        <v>0.9415</v>
       </c>
       <c r="G23" t="n">
-        <v>5.23026265613</v>
+        <v>4.22459352911843</v>
       </c>
       <c r="H23" t="n">
-        <v>4.66675680080935</v>
+        <v>3.16018242998846</v>
       </c>
       <c r="I23" t="n">
-        <v>92.7252361371669</v>
+        <v>50.7465073592563</v>
       </c>
       <c r="J23" t="n">
-        <v>84.7073723658225</v>
+        <v>33.0640130023615</v>
       </c>
       <c r="K23" t="n">
-        <v>35.674995350735</v>
+        <v>28.0659117559938</v>
       </c>
       <c r="L23" t="n">
-        <v>37.5837433377108</v>
+        <v>27.6701006086105</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8785</v>
+        <v>0.9215</v>
       </c>
       <c r="F24" t="n">
-        <v>0.89</v>
+        <v>0.939</v>
       </c>
       <c r="G24" t="n">
-        <v>5.3835560286684</v>
+        <v>4.5394524542586</v>
       </c>
       <c r="H24" t="n">
-        <v>4.83909483020971</v>
+        <v>3.29632773850662</v>
       </c>
       <c r="I24" t="n">
-        <v>107.648020925251</v>
+        <v>51.2056038046888</v>
       </c>
       <c r="J24" t="n">
-        <v>97.2583258225538</v>
+        <v>33.9610837996981</v>
       </c>
       <c r="K24" t="n">
-        <v>35.4956162083376</v>
+        <v>28.255888495609</v>
       </c>
       <c r="L24" t="n">
-        <v>37.4386700775072</v>
+        <v>27.7509363239355</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.871</v>
+        <v>0.914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.885</v>
+        <v>0.938</v>
       </c>
       <c r="G25" t="n">
-        <v>5.50652853415162</v>
+        <v>4.236880876325</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1036764466599</v>
+        <v>3.39631821848991</v>
       </c>
       <c r="I25" t="n">
-        <v>114.924365372456</v>
+        <v>51.6178752523839</v>
       </c>
       <c r="J25" t="n">
-        <v>104.346924507869</v>
+        <v>34.1165354700414</v>
       </c>
       <c r="K25" t="n">
-        <v>35.6753755528801</v>
+        <v>28.2750780551094</v>
       </c>
       <c r="L25" t="n">
-        <v>37.6721853202077</v>
+        <v>27.9226831139763</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.861</v>
+        <v>0.914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.873</v>
+        <v>0.9365</v>
       </c>
       <c r="G26" t="n">
-        <v>5.58242993695613</v>
+        <v>4.57606584157027</v>
       </c>
       <c r="H26" t="n">
-        <v>5.19786203008445</v>
+        <v>3.40071810861761</v>
       </c>
       <c r="I26" t="n">
-        <v>123.191743329081</v>
+        <v>50.730373881274</v>
       </c>
       <c r="J26" t="n">
-        <v>116.474977058337</v>
+        <v>34.4717566819976</v>
       </c>
       <c r="K26" t="n">
-        <v>35.7952282113963</v>
+        <v>27.9810385235594</v>
       </c>
       <c r="L26" t="n">
-        <v>37.5631462890476</v>
+        <v>27.6072314955641</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8565</v>
+        <v>0.9155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.871</v>
+        <v>0.9365</v>
       </c>
       <c r="G27" t="n">
-        <v>5.48473631601191</v>
+        <v>4.5210607164251</v>
       </c>
       <c r="H27" t="n">
-        <v>5.14581893710994</v>
+        <v>3.38325969460279</v>
       </c>
       <c r="I27" t="n">
-        <v>128.909152957867</v>
+        <v>55.8589122647009</v>
       </c>
       <c r="J27" t="n">
-        <v>120.383195294628</v>
+        <v>38.4323075263063</v>
       </c>
       <c r="K27" t="n">
-        <v>35.7052887545307</v>
+        <v>28.4622191263109</v>
       </c>
       <c r="L27" t="n">
-        <v>37.8392813871495</v>
+        <v>28.2571772145378</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8565</v>
+        <v>0.9095</v>
       </c>
       <c r="F28" t="n">
-        <v>0.871</v>
+        <v>0.936</v>
       </c>
       <c r="G28" t="n">
-        <v>5.42353939532824</v>
+        <v>4.48305023232508</v>
       </c>
       <c r="H28" t="n">
-        <v>5.03036003832841</v>
+        <v>3.28477976490662</v>
       </c>
       <c r="I28" t="n">
-        <v>125.064853601089</v>
+        <v>55.4686574215443</v>
       </c>
       <c r="J28" t="n">
-        <v>117.320675437727</v>
+        <v>36.0196257628105</v>
       </c>
       <c r="K28" t="n">
-        <v>35.5581184577078</v>
+        <v>28.5857486609146</v>
       </c>
       <c r="L28" t="n">
-        <v>37.6658749495528</v>
+        <v>28.5072473717879</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.864</v>
+        <v>0.915</v>
       </c>
       <c r="F29" t="n">
-        <v>0.874</v>
+        <v>0.936</v>
       </c>
       <c r="G29" t="n">
-        <v>5.83501475595154</v>
+        <v>4.54658048282921</v>
       </c>
       <c r="H29" t="n">
-        <v>5.21182973360795</v>
+        <v>3.38732722853398</v>
       </c>
       <c r="I29" t="n">
-        <v>131.766986601032</v>
+        <v>57.7645595958411</v>
       </c>
       <c r="J29" t="n">
-        <v>122.057278165408</v>
+        <v>37.3335596113615</v>
       </c>
       <c r="K29" t="n">
-        <v>35.7583533970946</v>
+        <v>28.6724254630141</v>
       </c>
       <c r="L29" t="n">
-        <v>37.5555061018629</v>
+        <v>28.298206219759</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8575</v>
+        <v>0.9035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.869</v>
+        <v>0.938</v>
       </c>
       <c r="G30" t="n">
-        <v>5.51807119467203</v>
+        <v>4.60721560038511</v>
       </c>
       <c r="H30" t="n">
-        <v>5.08316479029982</v>
+        <v>3.5127734941034</v>
       </c>
       <c r="I30" t="n">
-        <v>132.232338569259</v>
+        <v>59.7208790695522</v>
       </c>
       <c r="J30" t="n">
-        <v>122.811893365983</v>
+        <v>39.4266315965211</v>
       </c>
       <c r="K30" t="n">
-        <v>35.6713473550687</v>
+        <v>28.4414352066609</v>
       </c>
       <c r="L30" t="n">
-        <v>37.4147070420376</v>
+        <v>28.4126404169182</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.859</v>
+        <v>0.902</v>
       </c>
       <c r="F31" t="n">
-        <v>0.872</v>
+        <v>0.9335</v>
       </c>
       <c r="G31" t="n">
-        <v>5.46799943357294</v>
+        <v>4.75182690595764</v>
       </c>
       <c r="H31" t="n">
-        <v>5.02384516127667</v>
+        <v>3.53317251509835</v>
       </c>
       <c r="I31" t="n">
-        <v>136.397553563903</v>
+        <v>58.6954929608537</v>
       </c>
       <c r="J31" t="n">
-        <v>128.199781537166</v>
+        <v>38.4521529835161</v>
       </c>
       <c r="K31" t="n">
-        <v>35.551864824723</v>
+        <v>28.5006901266074</v>
       </c>
       <c r="L31" t="n">
-        <v>37.4477406999756</v>
+        <v>28.3605739751766</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9305</v>
+        <v>0.9375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9465</v>
+        <v>0.9575</v>
       </c>
       <c r="G32" t="n">
-        <v>4.34184353822697</v>
+        <v>4.07734874869556</v>
       </c>
       <c r="H32" t="n">
-        <v>3.70571316508084</v>
+        <v>2.88692938673202</v>
       </c>
       <c r="I32" t="n">
-        <v>53.6175187668309</v>
+        <v>43.2805946324101</v>
       </c>
       <c r="J32" t="n">
-        <v>39.8663513329776</v>
+        <v>24.0793351525694</v>
       </c>
       <c r="K32" t="n">
-        <v>32.8172737908828</v>
+        <v>27.254777502437</v>
       </c>
       <c r="L32" t="n">
-        <v>32.9821417822697</v>
+        <v>25.8430220236936</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9185</v>
+        <v>0.933</v>
       </c>
       <c r="F33" t="n">
-        <v>0.935</v>
+        <v>0.9595</v>
       </c>
       <c r="G33" t="n">
-        <v>4.77697052666029</v>
+        <v>4.26314140428922</v>
       </c>
       <c r="H33" t="n">
-        <v>4.00741518209234</v>
+        <v>2.8277290144083</v>
       </c>
       <c r="I33" t="n">
-        <v>72.1932504461177</v>
+        <v>43.6625655439695</v>
       </c>
       <c r="J33" t="n">
-        <v>56.4977252881331</v>
+        <v>24.596934479355</v>
       </c>
       <c r="K33" t="n">
-        <v>33.0140738850754</v>
+        <v>27.3563958538945</v>
       </c>
       <c r="L33" t="n">
-        <v>33.570270929771</v>
+        <v>26.2093387205965</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9065</v>
+        <v>0.936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.924</v>
+        <v>0.9585</v>
       </c>
       <c r="G34" t="n">
-        <v>4.92961390035701</v>
+        <v>4.33745367519361</v>
       </c>
       <c r="H34" t="n">
-        <v>4.06479667845349</v>
+        <v>2.92497565600414</v>
       </c>
       <c r="I34" t="n">
-        <v>87.7697010199699</v>
+        <v>47.7484708666048</v>
       </c>
       <c r="J34" t="n">
-        <v>70.0772990272026</v>
+        <v>27.6695892500203</v>
       </c>
       <c r="K34" t="n">
-        <v>32.9712054558419</v>
+        <v>27.4190001965676</v>
       </c>
       <c r="L34" t="n">
-        <v>33.650944093752</v>
+        <v>26.3018647325487</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.905</v>
+        <v>0.937</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9235</v>
+        <v>0.9595</v>
       </c>
       <c r="G35" t="n">
-        <v>4.80851397295644</v>
+        <v>4.36660540822581</v>
       </c>
       <c r="H35" t="n">
-        <v>4.08697576519064</v>
+        <v>3.0148737621398</v>
       </c>
       <c r="I35" t="n">
-        <v>92.064759580742</v>
+        <v>48.22325629944</v>
       </c>
       <c r="J35" t="n">
-        <v>75.0451451638236</v>
+        <v>27.8868762327759</v>
       </c>
       <c r="K35" t="n">
-        <v>32.9120700560388</v>
+        <v>27.6124698284317</v>
       </c>
       <c r="L35" t="n">
-        <v>33.3539766504604</v>
+        <v>26.3631594875691</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.91</v>
+        <v>0.9235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9245</v>
+        <v>0.951</v>
       </c>
       <c r="G36" t="n">
-        <v>4.90522816760246</v>
+        <v>4.43446016430752</v>
       </c>
       <c r="H36" t="n">
-        <v>4.08484460541657</v>
+        <v>3.17953773492349</v>
       </c>
       <c r="I36" t="n">
-        <v>95.9466746455034</v>
+        <v>51.9818070394933</v>
       </c>
       <c r="J36" t="n">
-        <v>80.66212928731</v>
+        <v>30.8920741573934</v>
       </c>
       <c r="K36" t="n">
-        <v>33.1116151209224</v>
+        <v>27.6855719269715</v>
       </c>
       <c r="L36" t="n">
-        <v>33.5730113874564</v>
+        <v>26.701175300774</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8985</v>
+        <v>0.9245</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9155</v>
+        <v>0.9555</v>
       </c>
       <c r="G37" t="n">
-        <v>5.16678458351156</v>
+        <v>4.49634685308723</v>
       </c>
       <c r="H37" t="n">
-        <v>4.19535209672996</v>
+        <v>3.1004852767271</v>
       </c>
       <c r="I37" t="n">
-        <v>104.199222380317</v>
+        <v>51.1515033693133</v>
       </c>
       <c r="J37" t="n">
-        <v>88.8744434436766</v>
+        <v>29.6835487467378</v>
       </c>
       <c r="K37" t="n">
-        <v>33.1151374205026</v>
+        <v>27.9121450101</v>
       </c>
       <c r="L37" t="n">
-        <v>33.6595966988514</v>
+        <v>26.7637120358982</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.902</v>
+        <v>0.9235</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9195</v>
+        <v>0.956</v>
       </c>
       <c r="G38" t="n">
-        <v>5.01301545703215</v>
+        <v>4.42539689672444</v>
       </c>
       <c r="H38" t="n">
-        <v>4.19016338767158</v>
+        <v>3.04667422546396</v>
       </c>
       <c r="I38" t="n">
-        <v>109.388895042621</v>
+        <v>53.4168405867422</v>
       </c>
       <c r="J38" t="n">
-        <v>94.8726515866744</v>
+        <v>32.0936433288019</v>
       </c>
       <c r="K38" t="n">
-        <v>33.1460350801544</v>
+        <v>27.9780203237905</v>
       </c>
       <c r="L38" t="n">
-        <v>33.658557684542</v>
+        <v>26.6207477689299</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.899</v>
+        <v>0.9185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.918</v>
+        <v>0.9505</v>
       </c>
       <c r="G39" t="n">
-        <v>4.77574360102099</v>
+        <v>4.42401968658852</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95234639603569</v>
+        <v>3.18073708612364</v>
       </c>
       <c r="I39" t="n">
-        <v>100.079527566363</v>
+        <v>54.7229894786721</v>
       </c>
       <c r="J39" t="n">
-        <v>86.0356308386104</v>
+        <v>32.2327232570988</v>
       </c>
       <c r="K39" t="n">
-        <v>33.0560667673246</v>
+        <v>27.8493257806199</v>
       </c>
       <c r="L39" t="n">
-        <v>33.273922048681</v>
+        <v>26.8057689370375</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.898</v>
+        <v>0.925</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9115</v>
+        <v>0.9545</v>
       </c>
       <c r="G40" t="n">
-        <v>4.94208936051076</v>
+        <v>4.53927939881918</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9523362377787</v>
+        <v>3.13785153644184</v>
       </c>
       <c r="I40" t="n">
-        <v>98.7866600903044</v>
+        <v>55.4099277398801</v>
       </c>
       <c r="J40" t="n">
-        <v>82.6485019036437</v>
+        <v>33.3826432096413</v>
       </c>
       <c r="K40" t="n">
-        <v>32.8969171515298</v>
+        <v>28.0018008430968</v>
       </c>
       <c r="L40" t="n">
-        <v>33.3471404567088</v>
+        <v>26.912833179499</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9</v>
+        <v>0.928</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9195</v>
+        <v>0.956</v>
       </c>
       <c r="G41" t="n">
-        <v>5.19406714774386</v>
+        <v>4.40075535224934</v>
       </c>
       <c r="H41" t="n">
-        <v>4.14652840223478</v>
+        <v>3.0487147719382</v>
       </c>
       <c r="I41" t="n">
-        <v>99.7573337364125</v>
+        <v>50.8209731493614</v>
       </c>
       <c r="J41" t="n">
-        <v>83.651751247486</v>
+        <v>30.6510469023508</v>
       </c>
       <c r="K41" t="n">
-        <v>33.0087324634814</v>
+        <v>27.6614153778965</v>
       </c>
       <c r="L41" t="n">
-        <v>33.6906598924011</v>
+        <v>26.8320583772355</v>
       </c>
     </row>
   </sheetData>
